--- a/burring_point_testcase.xlsx
+++ b/burring_point_testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13710"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28695" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="v5.3功能区33168" sheetId="15" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="167">
   <si>
     <t>TestId</t>
   </si>
@@ -462,8 +462,134 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>prd</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>{"clickno":"1293316802a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316801a"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"clickno":"1293316803a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316804a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316805a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316806a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316807a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316808a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316809a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316810a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316811a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316812a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316813a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316814a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316815a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316816a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316817a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316818a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316819a"}</t>
+  </si>
+  <si>
+    <t>{"clickno":"1293316820a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316801a"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316802a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316803a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316804a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316805a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316806a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316807a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316808a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316809a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316810a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316811a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316812a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316813a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316814a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316815a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316816a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316817a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316818a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316819a"}</t>
+  </si>
+  <si>
+    <t>{"exposureValue":"App_Home_33168_1293316820a"}</t>
+  </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expectation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -936,27 +1062,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.75" style="10" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="32.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="47.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -975,17 +1100,14 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -995,20 +1117,21 @@
       <c r="C2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="9">
-        <v>33120</v>
+      <c r="D2" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1018,19 +1141,20 @@
       <c r="C3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="9">
-        <v>33120</v>
+      <c r="D3" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1040,19 +1164,20 @@
       <c r="C4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="9">
-        <v>33168</v>
+      <c r="D4" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1062,19 +1187,20 @@
       <c r="C5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="9">
-        <v>33168</v>
+      <c r="D5" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1084,19 +1210,20 @@
       <c r="C6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="9">
-        <v>33168</v>
+      <c r="D6" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1106,19 +1233,20 @@
       <c r="C7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="9">
-        <v>33168</v>
+      <c r="D7" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1128,19 +1256,20 @@
       <c r="C8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="9">
-        <v>33168</v>
+      <c r="D8" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1150,17 +1279,20 @@
       <c r="C9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="9">
-        <v>33168</v>
+      <c r="D9" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1170,17 +1302,20 @@
       <c r="C10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="9">
-        <v>33168</v>
+      <c r="D10" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1190,17 +1325,20 @@
       <c r="C11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="9">
-        <v>33168</v>
+      <c r="D11" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F11" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1210,17 +1348,20 @@
       <c r="C12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="9">
-        <v>33168</v>
+      <c r="D12" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F12" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1230,17 +1371,20 @@
       <c r="C13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="9">
-        <v>33168</v>
+      <c r="D13" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1250,17 +1394,20 @@
       <c r="C14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="9">
-        <v>33168</v>
+      <c r="D14" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1270,17 +1417,20 @@
       <c r="C15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="9">
-        <v>33168</v>
+      <c r="D15" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1290,17 +1440,20 @@
       <c r="C16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="9">
-        <v>33168</v>
+      <c r="D16" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1310,17 +1463,20 @@
       <c r="C17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="9">
-        <v>33168</v>
+      <c r="D17" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1330,17 +1486,20 @@
       <c r="C18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="9">
-        <v>33168</v>
+      <c r="D18" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1350,17 +1509,20 @@
       <c r="C19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="9">
-        <v>33168</v>
+      <c r="D19" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1370,17 +1532,20 @@
       <c r="C20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="9">
-        <v>33168</v>
+      <c r="D20" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1390,17 +1555,20 @@
       <c r="C21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="9">
-        <v>33168</v>
+      <c r="D21" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1410,17 +1578,20 @@
       <c r="C22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="9">
-        <v>33168</v>
+      <c r="D22" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1430,17 +1601,20 @@
       <c r="C23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="9">
-        <v>33168</v>
+      <c r="D23" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1450,17 +1624,20 @@
       <c r="C24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="9">
-        <v>33168</v>
+      <c r="D24" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1470,17 +1647,20 @@
       <c r="C25" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="9">
-        <v>33168</v>
+      <c r="D25" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1490,17 +1670,20 @@
       <c r="C26" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="9">
-        <v>33168</v>
+      <c r="D26" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1510,17 +1693,20 @@
       <c r="C27" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="9">
-        <v>33168</v>
+      <c r="D27" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F27" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1530,17 +1716,20 @@
       <c r="C28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="9">
-        <v>33168</v>
+      <c r="D28" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1550,17 +1739,20 @@
       <c r="C29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="9">
-        <v>33168</v>
+      <c r="D29" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1570,17 +1762,20 @@
       <c r="C30" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="9">
-        <v>33168</v>
+      <c r="D30" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1590,17 +1785,20 @@
       <c r="C31" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="9">
-        <v>33168</v>
+      <c r="D31" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -1610,17 +1808,20 @@
       <c r="C32" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="9">
-        <v>33168</v>
+      <c r="D32" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -1630,17 +1831,20 @@
       <c r="C33" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="9">
-        <v>33168</v>
+      <c r="D33" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -1650,17 +1854,20 @@
       <c r="C34" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="9">
-        <v>33168</v>
+      <c r="D34" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -1670,17 +1877,20 @@
       <c r="C35" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="9">
-        <v>33168</v>
+      <c r="D35" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -1690,17 +1900,20 @@
       <c r="C36" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="9">
-        <v>33168</v>
+      <c r="D36" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -1710,17 +1923,20 @@
       <c r="C37" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="9">
-        <v>33168</v>
+      <c r="D37" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -1730,17 +1946,20 @@
       <c r="C38" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="9">
-        <v>33168</v>
+      <c r="D38" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -1750,17 +1969,20 @@
       <c r="C39" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="9">
-        <v>33168</v>
+      <c r="D39" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -1770,17 +1992,20 @@
       <c r="C40" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="9">
-        <v>33168</v>
+      <c r="D40" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -1790,14 +2015,17 @@
       <c r="C41" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="9">
-        <v>33168</v>
+      <c r="D41" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>125</v>
+      <c r="F41" s="9">
+        <v>33168</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
